--- a/src/assets/tmp/doc/bash-import-questios-demo.xlsx
+++ b/src/assets/tmp/doc/bash-import-questios-demo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>试题类型</t>
   </si>
@@ -19,6 +19,9 @@
     <t>试题题目</t>
   </si>
   <si>
+    <t>图片地址</t>
+  </si>
+  <si>
     <t>所属章节编号</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>选项04是否选择</t>
   </si>
   <si>
+    <t>单选</t>
+  </si>
+  <si>
     <t>1+1=？</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>1+4=？</t>
+  </si>
+  <si>
+    <t>多选</t>
   </si>
   <si>
     <t>1+5=？</t>
@@ -91,12 +100,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,16 +124,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -135,13 +150,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -161,6 +176,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -360,17 +376,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -398,10 +414,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -649,12 +665,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -941,7 +957,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -969,10 +985,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1223,23 +1239,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1279,232 +1295,241 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1702</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="G2" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="I2" t="b" s="3">
         <v>1</v>
       </c>
-      <c r="F2" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" t="b" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="K2" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
         <v>4</v>
       </c>
-      <c r="L2" t="b" s="3">
+      <c r="M2" t="b" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1702</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="G3" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="K3" t="b" s="3">
         <v>1</v>
       </c>
-      <c r="F3" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="b" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="L3" t="b" s="3">
+      <c r="M3" t="b" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1702</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="G4" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" t="b" s="3">
+      <c r="M4" t="b" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="3">
-        <v>1</v>
+      <c r="A5" t="s" s="2">
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1702</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" t="b" s="3">
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" t="b" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="I5" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="K5" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>8</v>
       </c>
-      <c r="L5" t="b" s="3">
+      <c r="M5" t="b" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" t="b" s="3">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1702</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>6</v>
-      </c>
-      <c r="H6" t="b" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>7</v>
       </c>
-      <c r="J6" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="K6" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <v>8</v>
       </c>
-      <c r="L6" t="b" s="3">
+      <c r="M6" t="b" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" t="b" s="3">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1702</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="I7" t="b" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" t="b" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" t="b" s="3">
+      <c r="K7" t="b" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>8</v>
       </c>
-      <c r="L7" t="b" s="3">
+      <c r="M7" t="b" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1521,6 +1546,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4"/>
@@ -1535,6 +1561,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4"/>
@@ -1549,6 +1576,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
